--- a/semantic_validity_sample/Anon1Evaluation_semanticord.xlsx
+++ b/semantic_validity_sample/Anon1Evaluation_semanticord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Baroncini\OneDrive - Alma Mater Studiorum Università di Bologna\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4BEDE-C4DD-4ED3-B76B-46473AEE5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7828C32-E869-4921-B6F8-A04CDA2327EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="semantic_validity_arco" sheetId="10" r:id="rId1"/>
@@ -6954,16 +6954,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="1" max="1" width="76.88671875" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>277</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>370</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>228</v>
       </c>
@@ -7045,7 +7045,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>213</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
@@ -7083,7 +7083,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>222</v>
       </c>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>271</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>245</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>375</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>418</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>383</v>
       </c>
@@ -7218,7 +7218,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>379</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>301</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>289</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>325</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>361</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>295</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>182</v>
       </c>
@@ -7353,7 +7353,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>328</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>130</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>304</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>331</v>
       </c>
@@ -7431,7 +7431,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>350</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>322</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>237</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>170</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>292</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>209</v>
       </c>
@@ -7547,7 +7547,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>174</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>353</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>368</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>225</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>227</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>313</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>407</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>381</v>
       </c>
@@ -7722,7 +7722,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>395</v>
       </c>
@@ -7741,7 +7741,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>414</v>
       </c>
@@ -7760,7 +7760,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>387</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>392</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>404</v>
       </c>
@@ -7817,7 +7817,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>204</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>397</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>205</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>208</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>420</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>410</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>400</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>389</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>162</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>194</v>
       </c>
@@ -8007,7 +8007,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>336</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>274</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>338</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>343</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>319</v>
       </c>
@@ -8106,7 +8106,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>231</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>242</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>307</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>310</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>316</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>347</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>251</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>334</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>158</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>262</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>248</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>240</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>206</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>190</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>216</v>
       </c>
@@ -8412,7 +8412,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>186</v>
       </c>
@@ -8431,7 +8431,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>358</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>134</v>
       </c>
@@ -8469,7 +8469,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>345</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>259</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>286</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>254</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>198</v>
       </c>
@@ -8568,7 +8568,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>283</v>
       </c>
@@ -8587,7 +8587,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>280</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>138</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>142</v>
       </c>
@@ -8644,7 +8644,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>166</v>
       </c>
@@ -8663,7 +8663,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>154</v>
       </c>
@@ -8682,7 +8682,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>150</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>268</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>268</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>355</v>
       </c>
@@ -8758,7 +8758,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>160</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>178</v>
       </c>
@@ -8796,7 +8796,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>365</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>363</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>341</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>146</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>202</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>265</v>
       </c>
@@ -8914,7 +8914,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -8929,7 +8929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -8959,16 +8959,16 @@
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>527</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>611</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>463</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>440</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>695</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>466</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>589</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>472</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>646</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>697</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>587</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>499</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>486</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>512</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>444</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>455</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>642</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>585</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>701</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>533</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>482</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>726</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>650</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>728</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>734</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>595</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>428</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>730</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>489</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>707</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>516</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>545</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>581</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>736</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>452</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>619</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>630</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>654</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>664</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>478</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>679</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>480</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>537</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>718</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>541</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>577</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>607</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>476</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>470</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>681</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>526</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>510</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>710</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>705</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>714</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>656</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>676</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>559</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>722</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>555</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>571</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>603</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>522</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>683</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>622</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>638</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>660</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>583</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>547</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>573</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>434</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>563</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>624</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>543</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>551</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>448</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>674</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>567</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>634</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>493</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>691</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>497</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>436</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>687</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>668</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>626</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>424</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>615</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>670</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>505</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>524</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>612</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>501</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>459</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>508</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>430</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>591</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>529</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>599</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>520</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
@@ -10706,16 +10706,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>784</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>824</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>938</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>984</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>830</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>770</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>884</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>820</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1000</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>966</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>958</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>882</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>838</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>968</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>740</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1006</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>850</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>762</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>856</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>844</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>898</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>840</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1002</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>900</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>998</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>986</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>752</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>972</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1010</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1014</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>926</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>744</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>870</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>798</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>878</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>976</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>834</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>954</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>766</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>962</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>864</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>786</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>862</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>892</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>816</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>930</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>804</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>802</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>776</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1012</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>946</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1008</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>910</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>806</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>774</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>996</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>852</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>914</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>964</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>808</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>932</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>890</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>980</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1022</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>908</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>790</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>828</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>794</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>944</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>990</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>778</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>948</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>988</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>872</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>924</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>974</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>748</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>782</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>756</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>994</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1018</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>916</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>904</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>920</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>894</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>936</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>960</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>876</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>812</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>942</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>874</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>982</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>952</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>922</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>836</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>868</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>858</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>758</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>846</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>888</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -12451,17 +12451,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F72E9AF-F001-4CEA-A5EE-71111A86B9F0}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="1" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1252</v>
       </c>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1254</v>
       </c>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1256</v>
       </c>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1258</v>
       </c>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1259</v>
       </c>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1261</v>
       </c>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1263</v>
       </c>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1265</v>
       </c>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1265</v>
       </c>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1265</v>
       </c>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>1295</v>
       </c>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1273</v>
       </c>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>1327</v>
       </c>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1307</v>
       </c>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1299</v>
       </c>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>1293</v>
       </c>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>1281</v>
       </c>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1283</v>
       </c>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1319</v>
       </c>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1269</v>
       </c>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1311</v>
       </c>
@@ -12911,7 +12911,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1317</v>
       </c>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1301</v>
       </c>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1321</v>
       </c>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1303</v>
       </c>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1186</v>
       </c>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13001,7 +13001,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13211,7 +13211,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>1208</v>
       </c>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>1208</v>
       </c>
@@ -13331,7 +13331,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>1211</v>
       </c>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1213</v>
       </c>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>1213</v>
       </c>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>1216</v>
       </c>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>1216</v>
       </c>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>1219</v>
       </c>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1221</v>
       </c>
@@ -13436,7 +13436,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1223</v>
       </c>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>1225</v>
       </c>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>1225</v>
       </c>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1227</v>
       </c>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>1334</v>
       </c>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1229</v>
       </c>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>1230</v>
       </c>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>1330</v>
       </c>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>1315</v>
       </c>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>1332</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>1279</v>
       </c>
@@ -13601,7 +13601,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>1285</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>1291</v>
       </c>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>1232</v>
       </c>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>1233</v>
       </c>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>1234</v>
       </c>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1287</v>
       </c>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>1309</v>
       </c>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>1236</v>
       </c>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>1238</v>
       </c>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>1277</v>
       </c>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>1240</v>
       </c>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1325</v>
       </c>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>1242</v>
       </c>
@@ -13796,7 +13796,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1244</v>
       </c>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>1313</v>
       </c>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>1275</v>
       </c>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>1305</v>
       </c>
@@ -13856,7 +13856,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>1246</v>
       </c>
@@ -13871,52 +13871,52 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>1323</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
+      <c r="C95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1297</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3">
-        <v>1</v>
-      </c>
+      <c r="C96" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>1289</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3">
-        <v>1</v>
-      </c>
+      <c r="C97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>1329</v>
       </c>
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>1271</v>
       </c>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>1248</v>
       </c>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>1250</v>
       </c>
@@ -13976,28 +13976,29 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3">
         <f>SUM(C2:C101)</f>
-        <v>95.5</v>
+        <v>92.5</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3">
         <f>C102/97</f>
-        <v>0.98453608247422686</v>
+        <v>0.95360824742268047</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14005,20 +14006,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD59CC43-D3B3-41EB-8A5C-0D9FBD3F4EA7}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -14041,7 +14042,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -14062,7 +14063,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -14083,7 +14084,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>128</v>
       </c>
@@ -14102,7 +14103,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1045</v>
       </c>
@@ -14123,7 +14124,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -14144,7 +14145,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1116</v>
       </c>
@@ -14165,7 +14166,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1118</v>
       </c>
@@ -14186,7 +14187,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1120</v>
       </c>
@@ -14207,7 +14208,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1122</v>
       </c>
@@ -14228,7 +14229,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1124</v>
       </c>
@@ -14249,7 +14250,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1126</v>
       </c>
@@ -14270,7 +14271,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1128</v>
       </c>
@@ -14291,7 +14292,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1130</v>
       </c>
@@ -14312,7 +14313,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1132</v>
       </c>
@@ -14333,7 +14334,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1134</v>
       </c>
@@ -14354,7 +14355,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1136</v>
       </c>
@@ -14375,7 +14376,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1138</v>
       </c>
@@ -14396,7 +14397,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1140</v>
       </c>
@@ -14417,7 +14418,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>1142</v>
       </c>
@@ -14438,7 +14439,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
@@ -14459,7 +14460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
@@ -14501,7 +14502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>89</v>
       </c>
@@ -14522,7 +14523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
@@ -14543,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
@@ -14564,7 +14565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1144</v>
       </c>
@@ -14585,7 +14586,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1148</v>
       </c>
@@ -14606,7 +14607,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1150</v>
       </c>
@@ -14627,7 +14628,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1152</v>
       </c>
@@ -14648,7 +14649,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1154</v>
       </c>
@@ -14669,7 +14670,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1156</v>
       </c>
@@ -14690,7 +14691,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1158</v>
       </c>
@@ -14711,7 +14712,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1160</v>
       </c>
@@ -14732,7 +14733,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1162</v>
       </c>
@@ -14753,7 +14754,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1164</v>
       </c>
@@ -14774,7 +14775,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1166</v>
       </c>
@@ -14795,7 +14796,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1168</v>
       </c>
@@ -14816,7 +14817,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1170</v>
       </c>
@@ -14837,7 +14838,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>1172</v>
       </c>
@@ -14858,7 +14859,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1146</v>
       </c>
@@ -14879,7 +14880,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>120</v>
       </c>
@@ -14900,7 +14901,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>122</v>
       </c>
@@ -14921,7 +14922,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
@@ -14942,7 +14943,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -14963,7 +14964,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
@@ -14982,7 +14983,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -15003,7 +15004,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1079</v>
       </c>
@@ -15024,7 +15025,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1081</v>
       </c>
@@ -15045,7 +15046,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1112</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1088</v>
       </c>
@@ -15089,7 +15090,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>1114</v>
       </c>
@@ -15102,13 +15103,15 @@
       <c r="D52" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3">
+        <v>-1</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1090</v>
       </c>
@@ -15129,7 +15132,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1092</v>
       </c>
@@ -15150,7 +15153,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>1104</v>
       </c>
@@ -15171,7 +15174,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>1106</v>
       </c>
@@ -15192,7 +15195,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>1094</v>
       </c>
@@ -15211,7 +15214,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>1096</v>
       </c>
@@ -15232,7 +15235,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>1098</v>
       </c>
@@ -15253,7 +15256,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1083</v>
       </c>
@@ -15274,7 +15277,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>1108</v>
       </c>
@@ -15295,7 +15298,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>1110</v>
       </c>
@@ -15316,7 +15319,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>96</v>
       </c>
@@ -15337,7 +15340,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>109</v>
       </c>
@@ -15358,7 +15361,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1100</v>
       </c>
@@ -15379,7 +15382,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1026</v>
       </c>
@@ -15400,7 +15403,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>1028</v>
       </c>
@@ -15421,7 +15424,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>1030</v>
       </c>
@@ -15442,7 +15445,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1032</v>
       </c>
@@ -15463,7 +15466,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>1034</v>
       </c>
@@ -15482,7 +15485,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1036</v>
       </c>
@@ -15503,7 +15506,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>1046</v>
       </c>
@@ -15524,7 +15527,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>1048</v>
       </c>
@@ -15545,7 +15548,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>1050</v>
       </c>
@@ -15566,7 +15569,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>1052</v>
       </c>
@@ -15589,7 +15592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>1054</v>
       </c>
@@ -15608,7 +15611,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>1056</v>
       </c>
@@ -15629,7 +15632,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>1102</v>
       </c>
@@ -15650,7 +15653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>1058</v>
       </c>
@@ -15671,7 +15674,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>1073</v>
       </c>
@@ -15692,7 +15695,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>1038</v>
       </c>
@@ -15713,7 +15716,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1040</v>
       </c>
@@ -15734,7 +15737,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>1042</v>
       </c>
@@ -15755,7 +15758,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>101</v>
       </c>
@@ -15776,7 +15779,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>99</v>
       </c>
@@ -15797,7 +15800,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>115</v>
       </c>
@@ -15818,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>111</v>
       </c>
@@ -15839,7 +15842,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1060</v>
       </c>
@@ -15860,7 +15863,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>1075</v>
       </c>
@@ -15881,7 +15884,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1062</v>
       </c>
@@ -15900,7 +15903,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>1063</v>
       </c>
@@ -15919,7 +15922,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>1065</v>
       </c>
@@ -15938,7 +15941,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>103</v>
       </c>
@@ -15959,7 +15962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>1066</v>
       </c>
@@ -15980,7 +15983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>1069</v>
       </c>
@@ -16001,7 +16004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1077</v>
       </c>
@@ -16022,7 +16025,7 @@
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>1085</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>105</v>
       </c>
@@ -16062,7 +16065,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -16083,7 +16086,7 @@
       </c>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>117</v>
       </c>
@@ -16102,7 +16105,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>1071</v>
       </c>
@@ -16123,14 +16126,14 @@
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3">
         <f>SUM(E2:E101)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3">
@@ -16138,14 +16141,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3">
         <f>E102/(100-G102)</f>
-        <v>0.62352941176470589</v>
+        <v>0.61176470588235299</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -16167,18 +16170,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597D5861-4678-468D-AC84-F63D5D85F225}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="50.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1425</v>
       </c>
@@ -16195,7 +16198,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1534</v>
       </c>
@@ -16208,7 +16211,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1558</v>
       </c>
@@ -16221,7 +16224,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1602</v>
       </c>
@@ -16234,7 +16237,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1445</v>
       </c>
@@ -16249,7 +16252,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1485</v>
       </c>
@@ -16264,7 +16267,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1507</v>
       </c>
@@ -16279,7 +16282,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1550</v>
       </c>
@@ -16292,7 +16295,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1580</v>
       </c>
@@ -16307,7 +16310,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1526</v>
       </c>
@@ -16320,7 +16323,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1560</v>
       </c>
@@ -16333,7 +16336,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1528</v>
       </c>
@@ -16346,7 +16349,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1523</v>
       </c>
@@ -16361,7 +16364,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1513</v>
       </c>
@@ -16376,7 +16379,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>1441</v>
       </c>
@@ -16391,7 +16394,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>1521</v>
       </c>
@@ -16406,7 +16409,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>1548</v>
       </c>
@@ -16421,7 +16424,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>1612</v>
       </c>
@@ -16434,7 +16437,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>1576</v>
       </c>
@@ -16447,7 +16450,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1483</v>
       </c>
@@ -16462,7 +16465,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1542</v>
       </c>
@@ -16475,7 +16478,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>1552</v>
       </c>
@@ -16488,7 +16491,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>1574</v>
       </c>
@@ -16503,7 +16506,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1618</v>
       </c>
@@ -16516,7 +16519,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>1590</v>
       </c>
@@ -16531,7 +16534,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>1620</v>
       </c>
@@ -16546,7 +16549,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>1584</v>
       </c>
@@ -16559,7 +16562,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1519</v>
       </c>
@@ -16574,7 +16577,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>1433</v>
       </c>
@@ -16589,7 +16592,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1538</v>
       </c>
@@ -16602,7 +16605,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>1604</v>
       </c>
@@ -16617,7 +16620,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>1586</v>
       </c>
@@ -16630,7 +16633,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>1578</v>
       </c>
@@ -16643,7 +16646,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>1600</v>
       </c>
@@ -16658,7 +16661,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>1544</v>
       </c>
@@ -16671,7 +16674,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1511</v>
       </c>
@@ -16686,7 +16689,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>1536</v>
       </c>
@@ -16701,7 +16704,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>1461</v>
       </c>
@@ -16716,7 +16719,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1489</v>
       </c>
@@ -16731,7 +16734,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>1431</v>
       </c>
@@ -16746,7 +16749,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>1451</v>
       </c>
@@ -16761,7 +16764,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>1530</v>
       </c>
@@ -16774,7 +16777,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1505</v>
       </c>
@@ -16789,7 +16792,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1592</v>
       </c>
@@ -16802,7 +16805,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>1495</v>
       </c>
@@ -16817,7 +16820,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>1594</v>
       </c>
@@ -16830,7 +16833,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>1588</v>
       </c>
@@ -16843,7 +16846,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1554</v>
       </c>
@@ -16856,7 +16859,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>1525</v>
       </c>
@@ -16869,7 +16872,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>1614</v>
       </c>
@@ -16882,7 +16885,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1449</v>
       </c>
@@ -16897,7 +16900,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>1477</v>
       </c>
@@ -16912,7 +16915,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>1532</v>
       </c>
@@ -16925,7 +16928,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>1471</v>
       </c>
@@ -16940,7 +16943,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>1622</v>
       </c>
@@ -16955,7 +16958,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>1556</v>
       </c>
@@ -16968,7 +16971,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>1610</v>
       </c>
@@ -16981,7 +16984,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>1562</v>
       </c>
@@ -16994,7 +16997,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1467</v>
       </c>
@@ -17009,7 +17012,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>1596</v>
       </c>
@@ -17022,7 +17025,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>1463</v>
       </c>
@@ -17037,7 +17040,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>1517</v>
       </c>
@@ -17052,7 +17055,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>1427</v>
       </c>
@@ -17067,7 +17070,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>1487</v>
       </c>
@@ -17082,7 +17085,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>1598</v>
       </c>
@@ -17095,7 +17098,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>1437</v>
       </c>
@@ -17110,7 +17113,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1491</v>
       </c>
@@ -17125,7 +17128,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>1572</v>
       </c>
@@ -17138,7 +17141,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>1465</v>
       </c>
@@ -17153,7 +17156,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>1459</v>
       </c>
@@ -17168,7 +17171,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>1566</v>
       </c>
@@ -17181,7 +17184,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>1493</v>
       </c>
@@ -17196,7 +17199,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>1499</v>
       </c>
@@ -17211,7 +17214,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>1453</v>
       </c>
@@ -17226,7 +17229,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1455</v>
       </c>
@@ -17241,7 +17244,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>1515</v>
       </c>
@@ -17256,7 +17259,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>1469</v>
       </c>
@@ -17271,7 +17274,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>1473</v>
       </c>
@@ -17286,7 +17289,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>1509</v>
       </c>
@@ -17301,7 +17304,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>1457</v>
       </c>
@@ -17316,7 +17319,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>1443</v>
       </c>
@@ -17331,7 +17334,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>1479</v>
       </c>
@@ -17346,7 +17349,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1475</v>
       </c>
@@ -17361,7 +17364,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>1447</v>
       </c>
@@ -17376,7 +17379,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>1429</v>
       </c>
@@ -17391,7 +17394,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>1497</v>
       </c>
@@ -17406,7 +17409,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>1608</v>
       </c>
@@ -17421,7 +17424,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>1570</v>
       </c>
@@ -17434,7 +17437,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>1582</v>
       </c>
@@ -17447,7 +17450,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>1624</v>
       </c>
@@ -17462,7 +17465,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1606</v>
       </c>
@@ -17477,7 +17480,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>1568</v>
       </c>
@@ -17490,7 +17493,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>1564</v>
       </c>
@@ -17505,7 +17508,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>1540</v>
       </c>
@@ -17518,7 +17521,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>1435</v>
       </c>
@@ -17533,7 +17536,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>1501</v>
       </c>
@@ -17548,7 +17551,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>1616</v>
       </c>
@@ -17561,7 +17564,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>1503</v>
       </c>
@@ -17576,7 +17579,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1439</v>
       </c>
@@ -17591,7 +17594,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>1481</v>
       </c>
@@ -17604,7 +17607,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>1546</v>
       </c>
@@ -17617,7 +17620,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="3">
@@ -17627,7 +17630,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="3">
@@ -17650,15 +17653,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1425</v>
       </c>
@@ -17678,7 +17681,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1695</v>
       </c>
@@ -17694,7 +17697,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1782</v>
       </c>
@@ -17710,7 +17713,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1723</v>
       </c>
@@ -17726,7 +17729,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1775</v>
       </c>
@@ -17742,7 +17745,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1665</v>
       </c>
@@ -17758,7 +17761,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1725</v>
       </c>
@@ -17774,7 +17777,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1793</v>
       </c>
@@ -17790,7 +17793,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1788</v>
       </c>
@@ -17806,7 +17809,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1669</v>
       </c>
@@ -17822,7 +17825,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1667</v>
       </c>
@@ -17838,7 +17841,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1728</v>
       </c>
@@ -17854,7 +17857,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1747</v>
       </c>
@@ -17870,7 +17873,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1654</v>
       </c>
@@ -17886,7 +17889,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1630</v>
       </c>
@@ -17902,7 +17905,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1707</v>
       </c>
@@ -17918,7 +17921,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1781</v>
       </c>
@@ -17934,7 +17937,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1789</v>
       </c>
@@ -17950,7 +17953,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1649</v>
       </c>
@@ -17966,7 +17969,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>1628</v>
       </c>
@@ -17982,7 +17985,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1645</v>
       </c>
@@ -17998,7 +18001,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>1663</v>
       </c>
@@ -18016,7 +18019,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1706</v>
       </c>
@@ -18032,7 +18035,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1766</v>
       </c>
@@ -18048,7 +18051,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>1688</v>
       </c>
@@ -18064,7 +18067,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>1712</v>
       </c>
@@ -18080,7 +18083,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1785</v>
       </c>
@@ -18096,7 +18099,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1754</v>
       </c>
@@ -18112,7 +18115,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1763</v>
       </c>
@@ -18128,7 +18131,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1681</v>
       </c>
@@ -18144,7 +18147,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1792</v>
       </c>
@@ -18160,7 +18163,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1735</v>
       </c>
@@ -18176,7 +18179,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1646</v>
       </c>
@@ -18192,7 +18195,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1668</v>
       </c>
@@ -18208,7 +18211,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1659</v>
       </c>
@@ -18224,7 +18227,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1710</v>
       </c>
@@ -18240,7 +18243,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1773</v>
       </c>
@@ -18256,7 +18259,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1635</v>
       </c>
@@ -18274,7 +18277,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1759</v>
       </c>
@@ -18292,7 +18295,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>1750</v>
       </c>
@@ -18310,7 +18313,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1786</v>
       </c>
@@ -18326,7 +18329,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1678</v>
       </c>
@@ -18344,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>1641</v>
       </c>
@@ -18362,7 +18365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>1650</v>
       </c>
@@ -18378,7 +18381,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1713</v>
       </c>
@@ -18396,7 +18399,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>1733</v>
       </c>
@@ -18414,7 +18417,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>1769</v>
       </c>
@@ -18432,7 +18435,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1717</v>
       </c>
@@ -18450,7 +18453,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1757</v>
       </c>
@@ -18468,7 +18471,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1699</v>
       </c>
@@ -18486,7 +18489,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1740</v>
       </c>
@@ -18504,7 +18507,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>1742</v>
       </c>
@@ -18520,7 +18523,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1637</v>
       </c>
@@ -18536,7 +18539,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1661</v>
       </c>
@@ -18554,7 +18557,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>1684</v>
       </c>
@@ -18572,7 +18575,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>1748</v>
       </c>
@@ -18588,7 +18591,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>1752</v>
       </c>
@@ -18606,7 +18609,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>1731</v>
       </c>
@@ -18624,7 +18627,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>1633</v>
       </c>
@@ -18642,7 +18645,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1721</v>
       </c>
@@ -18660,7 +18663,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>1686</v>
       </c>
@@ -18678,7 +18681,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>1657</v>
       </c>
@@ -18696,7 +18699,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>1708</v>
       </c>
@@ -18712,7 +18715,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>1674</v>
       </c>
@@ -18730,7 +18733,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1726</v>
       </c>
@@ -18748,7 +18751,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1697</v>
       </c>
@@ -18766,7 +18769,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>1703</v>
       </c>
@@ -18784,7 +18787,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>1715</v>
       </c>
@@ -18802,7 +18805,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1679</v>
       </c>
@@ -18820,7 +18823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>1682</v>
       </c>
@@ -18838,7 +18841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1719</v>
       </c>
@@ -18856,7 +18859,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>1771</v>
       </c>
@@ -18874,7 +18877,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>1736</v>
       </c>
@@ -18892,7 +18895,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>1729</v>
       </c>
@@ -18910,7 +18913,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>1672</v>
       </c>
@@ -18928,7 +18931,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>1676</v>
       </c>
@@ -18946,7 +18949,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>1790</v>
       </c>
@@ -18962,7 +18965,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>1631</v>
       </c>
@@ -18980,7 +18983,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>1764</v>
       </c>
@@ -18998,7 +19001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>1689</v>
       </c>
@@ -19016,7 +19019,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>1795</v>
       </c>
@@ -19032,7 +19035,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1761</v>
       </c>
@@ -19050,7 +19053,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>1777</v>
       </c>
@@ -19066,7 +19069,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>1647</v>
       </c>
@@ -19084,7 +19087,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>1743</v>
       </c>
@@ -19102,7 +19105,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>1755</v>
       </c>
@@ -19118,7 +19121,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>1783</v>
       </c>
@@ -19136,7 +19139,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1701</v>
       </c>
@@ -19152,7 +19155,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>1643</v>
       </c>
@@ -19170,7 +19173,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1745</v>
       </c>
@@ -19188,7 +19191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>1691</v>
       </c>
@@ -19206,7 +19209,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>1738</v>
       </c>
@@ -19224,7 +19227,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>1693</v>
       </c>
@@ -19242,7 +19245,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>1693</v>
       </c>
@@ -19260,7 +19263,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>1652</v>
       </c>
@@ -19278,7 +19281,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1639</v>
       </c>
@@ -19296,7 +19299,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>1779</v>
       </c>
@@ -19312,7 +19315,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>1797</v>
       </c>
@@ -19330,7 +19333,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>1767</v>
       </c>
@@ -19348,7 +19351,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>1670</v>
       </c>
@@ -19366,7 +19369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>1655</v>
       </c>
@@ -19382,7 +19385,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -19396,7 +19399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -19424,14 +19427,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="53.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1425</v>
       </c>
@@ -19448,7 +19451,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1863</v>
       </c>
@@ -19463,7 +19466,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1901</v>
       </c>
@@ -19478,7 +19481,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1934</v>
       </c>
@@ -19493,7 +19496,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1891</v>
       </c>
@@ -19508,7 +19511,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1865</v>
       </c>
@@ -19523,7 +19526,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1867</v>
       </c>
@@ -19538,7 +19541,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1970</v>
       </c>
@@ -19553,7 +19556,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1868</v>
       </c>
@@ -19568,7 +19571,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1902</v>
       </c>
@@ -19583,7 +19586,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1972</v>
       </c>
@@ -19598,7 +19601,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1949</v>
       </c>
@@ -19613,7 +19616,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1903</v>
       </c>
@@ -19628,7 +19631,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1938</v>
       </c>
@@ -19643,7 +19646,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>1904</v>
       </c>
@@ -19658,7 +19661,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>1905</v>
       </c>
@@ -19673,7 +19676,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>1857</v>
       </c>
@@ -19688,7 +19691,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>1951</v>
       </c>
@@ -19703,7 +19706,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>1845</v>
       </c>
@@ -19718,7 +19721,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1906</v>
       </c>
@@ -19733,7 +19736,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1847</v>
       </c>
@@ -19748,7 +19751,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>1870</v>
       </c>
@@ -19763,7 +19766,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>1953</v>
       </c>
@@ -19778,7 +19781,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1872</v>
       </c>
@@ -19793,7 +19796,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>1874</v>
       </c>
@@ -19808,7 +19811,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>1875</v>
       </c>
@@ -19823,7 +19826,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>1876</v>
       </c>
@@ -19838,7 +19841,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1877</v>
       </c>
@@ -19853,7 +19856,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>1861</v>
       </c>
@@ -19868,7 +19871,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1895</v>
       </c>
@@ -19883,7 +19886,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>1893</v>
       </c>
@@ -19898,7 +19901,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>1908</v>
       </c>
@@ -19913,7 +19916,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>1897</v>
       </c>
@@ -19926,7 +19929,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>1909</v>
       </c>
@@ -19941,7 +19944,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>1911</v>
       </c>
@@ -19956,7 +19959,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1913</v>
       </c>
@@ -19971,7 +19974,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>1915</v>
       </c>
@@ -19986,7 +19989,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>1916</v>
       </c>
@@ -20001,7 +20004,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1955</v>
       </c>
@@ -20016,7 +20019,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>1974</v>
       </c>
@@ -20031,7 +20034,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>1849</v>
       </c>
@@ -20046,7 +20049,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>1851</v>
       </c>
@@ -20061,7 +20064,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1853</v>
       </c>
@@ -20076,7 +20079,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1878</v>
       </c>
@@ -20091,7 +20094,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>1880</v>
       </c>
@@ -20106,7 +20109,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>1881</v>
       </c>
@@ -20121,7 +20124,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>1885</v>
       </c>
@@ -20136,7 +20139,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1882</v>
       </c>
@@ -20151,7 +20154,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>1859</v>
       </c>
@@ -20166,7 +20169,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>1957</v>
       </c>
@@ -20181,7 +20184,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1959</v>
       </c>
@@ -20196,7 +20199,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>1855</v>
       </c>
@@ -20211,7 +20214,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>1940</v>
       </c>
@@ -20226,7 +20229,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>1936</v>
       </c>
@@ -20241,7 +20244,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>1917</v>
       </c>
@@ -20256,7 +20259,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>1918</v>
       </c>
@@ -20271,7 +20274,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>1919</v>
       </c>
@@ -20286,7 +20289,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>1961</v>
       </c>
@@ -20301,7 +20304,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1942</v>
       </c>
@@ -20316,7 +20319,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>1889</v>
       </c>
@@ -20331,7 +20334,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>1963</v>
       </c>
@@ -20346,7 +20349,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>1965</v>
       </c>
@@ -20361,7 +20364,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>1921</v>
       </c>
@@ -20376,7 +20379,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>1922</v>
       </c>
@@ -20391,7 +20394,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>1923</v>
       </c>
@@ -20406,7 +20409,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>1924</v>
       </c>
@@ -20421,7 +20424,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1975</v>
       </c>
@@ -20436,7 +20439,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>1964</v>
       </c>
@@ -20449,7 +20452,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>1976</v>
       </c>
@@ -20464,7 +20467,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>1977</v>
       </c>
@@ -20479,7 +20482,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>1978</v>
       </c>
@@ -20494,7 +20497,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>1967</v>
       </c>
@@ -20509,7 +20512,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>1979</v>
       </c>
@@ -20524,7 +20527,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>1980</v>
       </c>
@@ -20539,7 +20542,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1925</v>
       </c>
@@ -20554,7 +20557,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>1926</v>
       </c>
@@ -20569,7 +20572,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>1899</v>
       </c>
@@ -20584,7 +20587,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>1981</v>
       </c>
@@ -20599,7 +20602,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>1982</v>
       </c>
@@ -20614,7 +20617,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>1931</v>
       </c>
@@ -20629,7 +20632,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>1983</v>
       </c>
@@ -20644,7 +20647,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>1984</v>
       </c>
@@ -20659,7 +20662,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1985</v>
       </c>
@@ -20674,7 +20677,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>1927</v>
       </c>
@@ -20689,7 +20692,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>1986</v>
       </c>
@@ -20704,7 +20707,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>1928</v>
       </c>
@@ -20719,7 +20722,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>1944</v>
       </c>
@@ -20734,7 +20737,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>1945</v>
       </c>
@@ -20749,7 +20752,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>1987</v>
       </c>
@@ -20764,7 +20767,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>1989</v>
       </c>
@@ -20779,7 +20782,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1946</v>
       </c>
@@ -20794,7 +20797,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>1948</v>
       </c>
@@ -20809,7 +20812,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>1990</v>
       </c>
@@ -20824,7 +20827,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>1991</v>
       </c>
@@ -20839,7 +20842,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>1969</v>
       </c>
@@ -20854,7 +20857,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>1929</v>
       </c>
@@ -20869,7 +20872,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>1930</v>
       </c>
@@ -20884,7 +20887,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>1887</v>
       </c>
@@ -20899,7 +20902,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1933</v>
       </c>
@@ -20914,7 +20917,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>1973</v>
       </c>
@@ -20929,7 +20932,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>1884</v>
       </c>
@@ -20944,7 +20947,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3">
@@ -20973,14 +20976,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1425</v>
       </c>
@@ -20997,7 +21000,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2099</v>
       </c>
@@ -21012,7 +21015,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2057</v>
       </c>
@@ -21029,7 +21032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2096</v>
       </c>
@@ -21044,7 +21047,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2085</v>
       </c>
@@ -21059,7 +21062,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2074</v>
       </c>
@@ -21074,7 +21077,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2068</v>
       </c>
@@ -21089,7 +21092,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2030</v>
       </c>
@@ -21104,7 +21107,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2032</v>
       </c>
@@ -21119,7 +21122,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2007</v>
       </c>
@@ -21134,7 +21137,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2075</v>
       </c>
@@ -21151,7 +21154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2072</v>
       </c>
@@ -21166,7 +21169,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2114</v>
       </c>
@@ -21181,7 +21184,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2089</v>
       </c>
@@ -21196,7 +21199,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2104</v>
       </c>
@@ -21211,7 +21214,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2042</v>
       </c>
@@ -21226,7 +21229,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2067</v>
       </c>
@@ -21241,7 +21244,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>2026</v>
       </c>
@@ -21258,7 +21261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>2059</v>
       </c>
@@ -21273,7 +21276,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2001</v>
       </c>
@@ -21288,7 +21291,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>2055</v>
       </c>
@@ -21303,7 +21306,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>2115</v>
       </c>
@@ -21318,7 +21321,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>2126</v>
       </c>
@@ -21333,7 +21336,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2011</v>
       </c>
@@ -21348,7 +21351,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2011</v>
       </c>
@@ -21363,7 +21366,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>2015</v>
       </c>
@@ -21378,7 +21381,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>2008</v>
       </c>
@@ -21393,7 +21396,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>2043</v>
       </c>
@@ -21408,7 +21411,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>2125</v>
       </c>
@@ -21423,7 +21426,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2016</v>
       </c>
@@ -21440,7 +21443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>2000</v>
       </c>
@@ -21455,7 +21458,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>2069</v>
       </c>
@@ -21470,7 +21473,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>2073</v>
       </c>
@@ -21485,7 +21488,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1994</v>
       </c>
@@ -21500,7 +21503,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>2065</v>
       </c>
@@ -21515,7 +21518,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>2102</v>
       </c>
@@ -21530,7 +21533,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>2110</v>
       </c>
@@ -21545,7 +21548,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>2025</v>
       </c>
@@ -21560,7 +21563,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>2083</v>
       </c>
@@ -21575,7 +21578,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>2023</v>
       </c>
@@ -21592,7 +21595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>2087</v>
       </c>
@@ -21609,7 +21612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>2094</v>
       </c>
@@ -21624,7 +21627,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2009</v>
       </c>
@@ -21639,7 +21642,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>2103</v>
       </c>
@@ -21654,7 +21657,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>2040</v>
       </c>
@@ -21669,7 +21672,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>2084</v>
       </c>
@@ -21684,7 +21687,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>2127</v>
       </c>
@@ -21699,7 +21702,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>2108</v>
       </c>
@@ -21714,7 +21717,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>2039</v>
       </c>
@@ -21731,7 +21734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>2105</v>
       </c>
@@ -21746,7 +21749,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>2028</v>
       </c>
@@ -21761,7 +21764,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>2056</v>
       </c>
@@ -21776,7 +21779,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>2046</v>
       </c>
@@ -21791,7 +21794,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>2053</v>
       </c>
@@ -21806,7 +21809,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2071</v>
       </c>
@@ -21821,7 +21824,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>2106</v>
       </c>
@@ -21838,7 +21841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>2093</v>
       </c>
@@ -21853,7 +21856,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>2037</v>
       </c>
@@ -21870,7 +21873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>2051</v>
       </c>
@@ -21885,7 +21888,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1998</v>
       </c>
@@ -21900,7 +21903,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>2047</v>
       </c>
@@ -21915,7 +21918,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>2095</v>
       </c>
@@ -21930,7 +21933,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>2113</v>
       </c>
@@ -21945,7 +21948,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>2012</v>
       </c>
@@ -21960,7 +21963,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>2091</v>
       </c>
@@ -21975,7 +21978,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>2049</v>
       </c>
@@ -21990,7 +21993,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>2111</v>
       </c>
@@ -22005,7 +22008,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>2054</v>
       </c>
@@ -22020,7 +22023,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>2119</v>
       </c>
@@ -22037,7 +22040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>2003</v>
       </c>
@@ -22052,7 +22055,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>2058</v>
       </c>
@@ -22067,7 +22070,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>2018</v>
       </c>
@@ -22082,7 +22085,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>2118</v>
       </c>
@@ -22097,7 +22100,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>2116</v>
       </c>
@@ -22112,7 +22115,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2077</v>
       </c>
@@ -22127,7 +22130,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>2101</v>
       </c>
@@ -22142,7 +22145,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>2061</v>
       </c>
@@ -22157,7 +22160,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>2080</v>
       </c>
@@ -22174,7 +22177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>2005</v>
       </c>
@@ -22189,7 +22192,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>2044</v>
       </c>
@@ -22204,7 +22207,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>2097</v>
       </c>
@@ -22219,7 +22222,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>2120</v>
       </c>
@@ -22234,7 +22237,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>2063</v>
       </c>
@@ -22251,7 +22254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>2035</v>
       </c>
@@ -22266,7 +22269,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2048</v>
       </c>
@@ -22281,7 +22284,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>1996</v>
       </c>
@@ -22296,7 +22299,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>2081</v>
       </c>
@@ -22313,7 +22316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>2124</v>
       </c>
@@ -22330,7 +22333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>2076</v>
       </c>
@@ -22345,7 +22348,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>2066</v>
       </c>
@@ -22360,7 +22363,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>2013</v>
       </c>
@@ -22375,7 +22378,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>2050</v>
       </c>
@@ -22390,7 +22393,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>2031</v>
       </c>
@@ -22405,7 +22408,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>2121</v>
       </c>
@@ -22420,7 +22423,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>2123</v>
       </c>
@@ -22435,7 +22438,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>2033</v>
       </c>
@@ -22450,7 +22453,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>2052</v>
       </c>
@@ -22465,7 +22468,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>2070</v>
       </c>
@@ -22480,7 +22483,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>2020</v>
       </c>
@@ -22495,7 +22498,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>2014</v>
       </c>
@@ -22510,7 +22513,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>2078</v>
       </c>
@@ -22525,7 +22528,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>

--- a/semantic_validity_sample/Anon1Evaluation_semanticord.xlsx
+++ b/semantic_validity_sample/Anon1Evaluation_semanticord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Baroncini\OneDrive - Alma Mater Studiorum Università di Bologna\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7828C32-E869-4921-B6F8-A04CDA2327EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F767BB03-0648-42DA-AA53-952CDD734FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="semantic_validity_arco" sheetId="10" r:id="rId1"/>
@@ -6950,20 +6950,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA4700-4AD8-43F8-9345-DEBA74006058}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.88671875" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="1" max="1" width="76.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>277</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>370</v>
       </c>
@@ -7019,14 +7019,14 @@
         <v>212</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>228</v>
       </c>
@@ -7045,7 +7045,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>213</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
@@ -7083,7 +7083,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>222</v>
       </c>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>271</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>245</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>375</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>418</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>383</v>
       </c>
@@ -7218,7 +7218,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>379</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>301</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>289</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>325</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>361</v>
       </c>
@@ -7308,14 +7308,14 @@
         <v>212</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>295</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>182</v>
       </c>
@@ -7353,7 +7353,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>328</v>
       </c>
@@ -7367,14 +7367,14 @@
         <v>212</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>130</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>304</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>331</v>
       </c>
@@ -7431,7 +7431,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>350</v>
       </c>
@@ -7445,14 +7445,14 @@
         <v>212</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>322</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>237</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>170</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>292</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>209</v>
       </c>
@@ -7547,7 +7547,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>174</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>353</v>
       </c>
@@ -7580,14 +7580,14 @@
         <v>212</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>368</v>
       </c>
@@ -7620,14 +7620,14 @@
         <v>212</v>
       </c>
       <c r="E34" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>225</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>227</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>313</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>407</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>381</v>
       </c>
@@ -7722,7 +7722,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>395</v>
       </c>
@@ -7741,7 +7741,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>414</v>
       </c>
@@ -7760,7 +7760,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>387</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>392</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>404</v>
       </c>
@@ -7817,7 +7817,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>204</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>397</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>205</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>208</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>420</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>410</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>400</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>389</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>162</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>194</v>
       </c>
@@ -8007,7 +8007,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>336</v>
       </c>
@@ -8021,14 +8021,14 @@
         <v>212</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>274</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>338</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>343</v>
       </c>
@@ -8080,14 +8080,14 @@
         <v>212</v>
       </c>
       <c r="E58" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>319</v>
       </c>
@@ -8106,7 +8106,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>231</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>242</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>307</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>310</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>316</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>347</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>251</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>334</v>
       </c>
@@ -8272,14 +8272,14 @@
         <v>212</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>158</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>262</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>248</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>240</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>206</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>190</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>216</v>
       </c>
@@ -8412,7 +8412,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>186</v>
       </c>
@@ -8431,7 +8431,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>358</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>134</v>
       </c>
@@ -8469,7 +8469,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>345</v>
       </c>
@@ -8483,14 +8483,14 @@
         <v>212</v>
       </c>
       <c r="E79" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>259</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>286</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>254</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>198</v>
       </c>
@@ -8568,7 +8568,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>283</v>
       </c>
@@ -8587,7 +8587,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>280</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>138</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>142</v>
       </c>
@@ -8644,7 +8644,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>166</v>
       </c>
@@ -8663,7 +8663,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>154</v>
       </c>
@@ -8682,7 +8682,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>150</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>268</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>268</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>355</v>
       </c>
@@ -8758,7 +8758,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>160</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>178</v>
       </c>
@@ -8796,7 +8796,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>365</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>363</v>
       </c>
@@ -8829,14 +8829,14 @@
         <v>212</v>
       </c>
       <c r="E97" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>341</v>
       </c>
@@ -8850,14 +8850,14 @@
         <v>212</v>
       </c>
       <c r="E98" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>146</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>202</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>265</v>
       </c>
@@ -8914,14 +8914,14 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="6">
         <f>SUM(E1:E101)</f>
-        <v>77.5</v>
+        <v>65.5</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6">
@@ -8929,14 +8929,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3">
         <f>E102/(100-G102)</f>
-        <v>0.88068181818181823</v>
+        <v>0.74431818181818177</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -8948,27 +8948,28 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD9B0D9-79DD-4484-99A5-977DB5EB45AF}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>527</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>611</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>463</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>440</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>695</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>466</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>589</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>472</v>
       </c>
@@ -9121,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>646</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>697</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>587</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>499</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>486</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>512</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>444</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>455</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>642</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>585</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>701</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>533</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>482</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>726</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>650</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>728</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>734</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>595</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>428</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>730</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>489</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>707</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>516</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>545</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>581</v>
       </c>
@@ -9546,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>736</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>452</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>619</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>630</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>654</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>664</v>
       </c>
@@ -9648,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>478</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>679</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>480</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>537</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>718</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>541</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>577</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>607</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>476</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>470</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>681</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>526</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>510</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>710</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>705</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>714</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>656</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>676</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>559</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>722</v>
       </c>
@@ -9988,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>555</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>571</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>603</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>522</v>
       </c>
@@ -10056,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>683</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>622</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>638</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>660</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>583</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>547</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>573</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>434</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>563</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>624</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>543</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>551</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>448</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>674</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>567</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>634</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>493</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>691</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>497</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>436</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>687</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>668</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>626</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>424</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>615</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>670</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>505</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>524</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>612</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>501</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>459</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>508</v>
       </c>
@@ -10600,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>430</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>591</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>529</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>599</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>520</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
@@ -10695,27 +10696,36 @@
         <v>99.5</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="2">
+        <f>E102/100</f>
+        <v>0.995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5D3DBC-BF51-49C6-ADC2-A8E901CC749B}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D91" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -10732,7 +10742,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>784</v>
       </c>
@@ -10749,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>824</v>
       </c>
@@ -10766,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>938</v>
       </c>
@@ -10783,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>984</v>
       </c>
@@ -10800,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>830</v>
       </c>
@@ -10817,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>770</v>
       </c>
@@ -10834,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>884</v>
       </c>
@@ -10851,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>820</v>
       </c>
@@ -10868,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1000</v>
       </c>
@@ -10885,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>966</v>
       </c>
@@ -10902,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>958</v>
       </c>
@@ -10919,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>882</v>
       </c>
@@ -10936,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>838</v>
       </c>
@@ -10953,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>968</v>
       </c>
@@ -10970,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>740</v>
       </c>
@@ -10987,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1006</v>
       </c>
@@ -11004,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>850</v>
       </c>
@@ -11021,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>762</v>
       </c>
@@ -11038,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>856</v>
       </c>
@@ -11055,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>844</v>
       </c>
@@ -11072,7 +11082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>898</v>
       </c>
@@ -11089,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>840</v>
       </c>
@@ -11106,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1002</v>
       </c>
@@ -11123,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>900</v>
       </c>
@@ -11140,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>998</v>
       </c>
@@ -11157,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>986</v>
       </c>
@@ -11174,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>752</v>
       </c>
@@ -11191,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>972</v>
       </c>
@@ -11208,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1010</v>
       </c>
@@ -11225,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>1014</v>
       </c>
@@ -11242,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>926</v>
       </c>
@@ -11259,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>744</v>
       </c>
@@ -11276,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>870</v>
       </c>
@@ -11293,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>798</v>
       </c>
@@ -11310,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>878</v>
       </c>
@@ -11327,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>976</v>
       </c>
@@ -11344,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>834</v>
       </c>
@@ -11361,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>954</v>
       </c>
@@ -11378,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>766</v>
       </c>
@@ -11395,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>962</v>
       </c>
@@ -11412,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>864</v>
       </c>
@@ -11429,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>786</v>
       </c>
@@ -11446,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>862</v>
       </c>
@@ -11463,7 +11473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>892</v>
       </c>
@@ -11480,7 +11490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>816</v>
       </c>
@@ -11497,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>930</v>
       </c>
@@ -11514,7 +11524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>804</v>
       </c>
@@ -11531,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>802</v>
       </c>
@@ -11548,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>776</v>
       </c>
@@ -11565,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1012</v>
       </c>
@@ -11582,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>946</v>
       </c>
@@ -11599,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>1008</v>
       </c>
@@ -11616,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>910</v>
       </c>
@@ -11633,7 +11643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>806</v>
       </c>
@@ -11650,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>774</v>
       </c>
@@ -11667,7 +11677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>996</v>
       </c>
@@ -11684,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>852</v>
       </c>
@@ -11701,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>914</v>
       </c>
@@ -11718,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>964</v>
       </c>
@@ -11735,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>808</v>
       </c>
@@ -11752,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>932</v>
       </c>
@@ -11769,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>890</v>
       </c>
@@ -11786,7 +11796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>980</v>
       </c>
@@ -11803,7 +11813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1022</v>
       </c>
@@ -11820,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>908</v>
       </c>
@@ -11837,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>790</v>
       </c>
@@ -11854,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>828</v>
       </c>
@@ -11871,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>794</v>
       </c>
@@ -11888,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>944</v>
       </c>
@@ -11905,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>990</v>
       </c>
@@ -11922,7 +11932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>778</v>
       </c>
@@ -11939,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>948</v>
       </c>
@@ -11956,7 +11966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>988</v>
       </c>
@@ -11973,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>872</v>
       </c>
@@ -11990,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>924</v>
       </c>
@@ -12007,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>974</v>
       </c>
@@ -12024,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>748</v>
       </c>
@@ -12041,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>782</v>
       </c>
@@ -12058,7 +12068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>756</v>
       </c>
@@ -12075,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>994</v>
       </c>
@@ -12092,7 +12102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>1018</v>
       </c>
@@ -12109,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>916</v>
       </c>
@@ -12126,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>904</v>
       </c>
@@ -12143,7 +12153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>920</v>
       </c>
@@ -12160,7 +12170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>894</v>
       </c>
@@ -12177,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>936</v>
       </c>
@@ -12194,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>960</v>
       </c>
@@ -12211,7 +12221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>876</v>
       </c>
@@ -12228,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>812</v>
       </c>
@@ -12245,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>942</v>
       </c>
@@ -12262,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>874</v>
       </c>
@@ -12279,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>982</v>
       </c>
@@ -12296,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>952</v>
       </c>
@@ -12313,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>922</v>
       </c>
@@ -12330,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>836</v>
       </c>
@@ -12347,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>868</v>
       </c>
@@ -12364,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>858</v>
       </c>
@@ -12381,7 +12391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>758</v>
       </c>
@@ -12398,7 +12408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>846</v>
       </c>
@@ -12415,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>888</v>
       </c>
@@ -12432,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -12440,6 +12450,12 @@
       <c r="E102" s="6">
         <f>SUM(E1:E101)</f>
         <v>99.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="2">
+        <f>E102/100</f>
+        <v>0.995</v>
       </c>
     </row>
   </sheetData>
@@ -12451,17 +12467,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F72E9AF-F001-4CEA-A5EE-71111A86B9F0}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95:C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="1" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -12476,7 +12492,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1252</v>
       </c>
@@ -12491,7 +12507,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1254</v>
       </c>
@@ -12506,7 +12522,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12521,7 +12537,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12536,7 +12552,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12551,7 +12567,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12566,7 +12582,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12581,7 +12597,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12596,7 +12612,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12611,7 +12627,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1178</v>
       </c>
@@ -12626,7 +12642,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1256</v>
       </c>
@@ -12641,7 +12657,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1258</v>
       </c>
@@ -12656,7 +12672,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1259</v>
       </c>
@@ -12671,7 +12687,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1261</v>
       </c>
@@ -12686,7 +12702,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1263</v>
       </c>
@@ -12701,7 +12717,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1265</v>
       </c>
@@ -12716,7 +12732,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1265</v>
       </c>
@@ -12731,7 +12747,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1265</v>
       </c>
@@ -12746,7 +12762,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1295</v>
       </c>
@@ -12761,7 +12777,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1273</v>
       </c>
@@ -12776,7 +12792,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>1327</v>
       </c>
@@ -12791,7 +12807,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1307</v>
       </c>
@@ -12806,7 +12822,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1299</v>
       </c>
@@ -12821,7 +12837,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1293</v>
       </c>
@@ -12836,7 +12852,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>1281</v>
       </c>
@@ -12851,7 +12867,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1283</v>
       </c>
@@ -12866,7 +12882,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>1319</v>
       </c>
@@ -12881,7 +12897,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>1269</v>
       </c>
@@ -12896,7 +12912,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1311</v>
       </c>
@@ -12911,7 +12927,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>1317</v>
       </c>
@@ -12926,7 +12942,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>1301</v>
       </c>
@@ -12941,7 +12957,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>1321</v>
       </c>
@@ -12956,7 +12972,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>1303</v>
       </c>
@@ -12971,7 +12987,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>1186</v>
       </c>
@@ -12986,7 +13002,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13001,7 +13017,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13016,7 +13032,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13031,7 +13047,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13046,7 +13062,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13061,7 +13077,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13076,7 +13092,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13091,7 +13107,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13106,7 +13122,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13121,7 +13137,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13136,7 +13152,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13151,7 +13167,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13166,7 +13182,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13181,7 +13197,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13196,7 +13212,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13211,7 +13227,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13226,7 +13242,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>1186</v>
       </c>
@@ -13241,7 +13257,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13256,7 +13272,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13271,7 +13287,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13286,7 +13302,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>1204</v>
       </c>
@@ -13301,7 +13317,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>1208</v>
       </c>
@@ -13316,7 +13332,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>1208</v>
       </c>
@@ -13331,7 +13347,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>1211</v>
       </c>
@@ -13346,7 +13362,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>1213</v>
       </c>
@@ -13361,7 +13377,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>1213</v>
       </c>
@@ -13376,7 +13392,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>1216</v>
       </c>
@@ -13391,7 +13407,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>1216</v>
       </c>
@@ -13406,7 +13422,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>1219</v>
       </c>
@@ -13421,7 +13437,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1221</v>
       </c>
@@ -13436,7 +13452,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>1223</v>
       </c>
@@ -13451,7 +13467,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>1225</v>
       </c>
@@ -13466,7 +13482,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>1225</v>
       </c>
@@ -13481,7 +13497,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>1227</v>
       </c>
@@ -13496,7 +13512,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>1334</v>
       </c>
@@ -13511,7 +13527,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>1229</v>
       </c>
@@ -13526,7 +13542,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>1230</v>
       </c>
@@ -13541,7 +13557,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>1330</v>
       </c>
@@ -13556,7 +13572,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>1315</v>
       </c>
@@ -13571,7 +13587,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>1332</v>
       </c>
@@ -13586,7 +13602,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>1279</v>
       </c>
@@ -13601,7 +13617,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>1285</v>
       </c>
@@ -13616,7 +13632,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>1291</v>
       </c>
@@ -13631,7 +13647,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>1232</v>
       </c>
@@ -13646,7 +13662,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>1233</v>
       </c>
@@ -13661,7 +13677,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>1234</v>
       </c>
@@ -13676,7 +13692,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>1287</v>
       </c>
@@ -13691,7 +13707,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>1309</v>
       </c>
@@ -13706,7 +13722,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>1236</v>
       </c>
@@ -13721,7 +13737,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>1238</v>
       </c>
@@ -13736,7 +13752,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1277</v>
       </c>
@@ -13751,7 +13767,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>1240</v>
       </c>
@@ -13766,7 +13782,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>1325</v>
       </c>
@@ -13781,7 +13797,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>1242</v>
       </c>
@@ -13796,7 +13812,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>1244</v>
       </c>
@@ -13811,7 +13827,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>1313</v>
       </c>
@@ -13826,7 +13842,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>1275</v>
       </c>
@@ -13841,7 +13857,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>1305</v>
       </c>
@@ -13856,7 +13872,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>1246</v>
       </c>
@@ -13871,7 +13887,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>1323</v>
       </c>
@@ -13886,7 +13902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>1297</v>
       </c>
@@ -13901,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>1289</v>
       </c>
@@ -13916,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>1329</v>
       </c>
@@ -13931,7 +13947,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>1271</v>
       </c>
@@ -13946,7 +13962,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>1248</v>
       </c>
@@ -13961,7 +13977,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>1250</v>
       </c>
@@ -13976,7 +13992,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3">
@@ -13986,7 +14002,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3">
@@ -14006,20 +14022,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD59CC43-D3B3-41EB-8A5C-0D9FBD3F4EA7}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -14042,7 +14058,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -14063,7 +14079,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -14084,7 +14100,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>128</v>
       </c>
@@ -14103,7 +14119,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1045</v>
       </c>
@@ -14124,7 +14140,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -14145,7 +14161,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1116</v>
       </c>
@@ -14166,7 +14182,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1118</v>
       </c>
@@ -14187,7 +14203,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1120</v>
       </c>
@@ -14208,7 +14224,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1122</v>
       </c>
@@ -14229,7 +14245,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1124</v>
       </c>
@@ -14250,7 +14266,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1126</v>
       </c>
@@ -14271,7 +14287,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1128</v>
       </c>
@@ -14292,7 +14308,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1130</v>
       </c>
@@ -14313,7 +14329,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1132</v>
       </c>
@@ -14334,7 +14350,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1134</v>
       </c>
@@ -14355,7 +14371,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1136</v>
       </c>
@@ -14376,7 +14392,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1138</v>
       </c>
@@ -14397,7 +14413,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1140</v>
       </c>
@@ -14418,7 +14434,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1142</v>
       </c>
@@ -14439,7 +14455,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
@@ -14460,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -14481,7 +14497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
@@ -14502,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>89</v>
       </c>
@@ -14523,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
@@ -14544,7 +14560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
@@ -14565,7 +14581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1144</v>
       </c>
@@ -14586,7 +14602,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>1148</v>
       </c>
@@ -14607,7 +14623,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>1150</v>
       </c>
@@ -14628,7 +14644,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1152</v>
       </c>
@@ -14649,7 +14665,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>1154</v>
       </c>
@@ -14670,7 +14686,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>1156</v>
       </c>
@@ -14691,7 +14707,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>1158</v>
       </c>
@@ -14712,7 +14728,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>1160</v>
       </c>
@@ -14733,7 +14749,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>1162</v>
       </c>
@@ -14754,7 +14770,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>1164</v>
       </c>
@@ -14775,7 +14791,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>1166</v>
       </c>
@@ -14796,7 +14812,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>1168</v>
       </c>
@@ -14817,7 +14833,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>1170</v>
       </c>
@@ -14838,7 +14854,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1172</v>
       </c>
@@ -14859,7 +14875,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1146</v>
       </c>
@@ -14880,7 +14896,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>120</v>
       </c>
@@ -14901,7 +14917,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>122</v>
       </c>
@@ -14922,7 +14938,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
@@ -14943,7 +14959,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -14964,7 +14980,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
@@ -14983,7 +14999,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -15004,7 +15020,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>1079</v>
       </c>
@@ -15025,7 +15041,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>1081</v>
       </c>
@@ -15046,7 +15062,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>1112</v>
       </c>
@@ -15069,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1088</v>
       </c>
@@ -15090,7 +15106,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>1114</v>
       </c>
@@ -15111,7 +15127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>1090</v>
       </c>
@@ -15132,7 +15148,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>1092</v>
       </c>
@@ -15153,7 +15169,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1104</v>
       </c>
@@ -15174,7 +15190,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>1106</v>
       </c>
@@ -15195,7 +15211,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>1094</v>
       </c>
@@ -15214,7 +15230,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>1096</v>
       </c>
@@ -15235,7 +15251,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>1098</v>
       </c>
@@ -15256,7 +15272,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>1083</v>
       </c>
@@ -15277,7 +15293,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>1108</v>
       </c>
@@ -15298,7 +15314,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>1110</v>
       </c>
@@ -15319,7 +15335,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>96</v>
       </c>
@@ -15340,7 +15356,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>109</v>
       </c>
@@ -15361,7 +15377,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1100</v>
       </c>
@@ -15382,7 +15398,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>1026</v>
       </c>
@@ -15403,7 +15419,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>1028</v>
       </c>
@@ -15424,7 +15440,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>1030</v>
       </c>
@@ -15445,7 +15461,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>1032</v>
       </c>
@@ -15466,7 +15482,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>1034</v>
       </c>
@@ -15483,9 +15499,11 @@
         <v>-1</v>
       </c>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>1036</v>
       </c>
@@ -15506,7 +15524,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>1046</v>
       </c>
@@ -15527,7 +15545,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>1048</v>
       </c>
@@ -15548,7 +15566,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>1050</v>
       </c>
@@ -15569,7 +15587,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>1052</v>
       </c>
@@ -15592,7 +15610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>1054</v>
       </c>
@@ -15609,9 +15627,11 @@
         <v>-1</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>1056</v>
       </c>
@@ -15632,7 +15652,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>1102</v>
       </c>
@@ -15653,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>1058</v>
       </c>
@@ -15674,7 +15694,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>1073</v>
       </c>
@@ -15695,7 +15715,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>1038</v>
       </c>
@@ -15716,7 +15736,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>1040</v>
       </c>
@@ -15737,7 +15757,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>1042</v>
       </c>
@@ -15758,7 +15778,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>101</v>
       </c>
@@ -15779,7 +15799,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>99</v>
       </c>
@@ -15800,7 +15820,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>115</v>
       </c>
@@ -15821,7 +15841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>111</v>
       </c>
@@ -15842,7 +15862,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>1060</v>
       </c>
@@ -15863,7 +15883,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>1075</v>
       </c>
@@ -15884,7 +15904,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>1062</v>
       </c>
@@ -15903,7 +15923,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>1063</v>
       </c>
@@ -15922,7 +15942,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>1065</v>
       </c>
@@ -15941,7 +15961,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>103</v>
       </c>
@@ -15962,7 +15982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>1066</v>
       </c>
@@ -15983,7 +16003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>1069</v>
       </c>
@@ -16004,7 +16024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>1077</v>
       </c>
@@ -16025,7 +16045,7 @@
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>1085</v>
       </c>
@@ -16046,7 +16066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>105</v>
       </c>
@@ -16065,7 +16085,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -16086,7 +16106,7 @@
       </c>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>117</v>
       </c>
@@ -16105,7 +16125,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>1071</v>
       </c>
@@ -16126,7 +16146,7 @@
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -16138,17 +16158,17 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3">
         <f>SUM(G2:G101)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3">
         <f>E102/(100-G102)</f>
-        <v>0.61176470588235299</v>
+        <v>0.62650602409638556</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -16170,18 +16190,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597D5861-4678-468D-AC84-F63D5D85F225}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="1" max="1" width="50.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1425</v>
       </c>
@@ -16198,7 +16218,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1534</v>
       </c>
@@ -16211,7 +16231,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1558</v>
       </c>
@@ -16224,7 +16244,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1602</v>
       </c>
@@ -16237,7 +16257,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1445</v>
       </c>
@@ -16252,7 +16272,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1485</v>
       </c>
@@ -16267,7 +16287,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1507</v>
       </c>
@@ -16282,7 +16302,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1550</v>
       </c>
@@ -16295,7 +16315,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1580</v>
       </c>
@@ -16310,7 +16330,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1526</v>
       </c>
@@ -16323,7 +16343,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1560</v>
       </c>
@@ -16336,7 +16356,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1528</v>
       </c>
@@ -16349,7 +16369,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1523</v>
       </c>
@@ -16364,7 +16384,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1513</v>
       </c>
@@ -16379,7 +16399,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1441</v>
       </c>
@@ -16394,7 +16414,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1521</v>
       </c>
@@ -16409,7 +16429,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1548</v>
       </c>
@@ -16424,7 +16444,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1612</v>
       </c>
@@ -16437,7 +16457,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1576</v>
       </c>
@@ -16450,7 +16470,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1483</v>
       </c>
@@ -16465,7 +16485,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1542</v>
       </c>
@@ -16478,7 +16498,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1552</v>
       </c>
@@ -16491,7 +16511,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1574</v>
       </c>
@@ -16506,7 +16526,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>1618</v>
       </c>
@@ -16519,7 +16539,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1590</v>
       </c>
@@ -16534,7 +16554,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1620</v>
       </c>
@@ -16549,7 +16569,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1584</v>
       </c>
@@ -16562,7 +16582,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1519</v>
       </c>
@@ -16577,7 +16597,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>1433</v>
       </c>
@@ -16592,7 +16612,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1538</v>
       </c>
@@ -16605,7 +16625,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1604</v>
       </c>
@@ -16620,7 +16640,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1586</v>
       </c>
@@ -16633,7 +16653,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>1578</v>
       </c>
@@ -16646,7 +16666,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>1600</v>
       </c>
@@ -16661,7 +16681,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1544</v>
       </c>
@@ -16674,7 +16694,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>1511</v>
       </c>
@@ -16689,7 +16709,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>1536</v>
       </c>
@@ -16704,7 +16724,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>1461</v>
       </c>
@@ -16719,7 +16739,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1489</v>
       </c>
@@ -16734,7 +16754,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>1431</v>
       </c>
@@ -16749,7 +16769,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>1451</v>
       </c>
@@ -16764,7 +16784,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>1530</v>
       </c>
@@ -16777,7 +16797,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1505</v>
       </c>
@@ -16792,7 +16812,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1592</v>
       </c>
@@ -16805,7 +16825,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>1495</v>
       </c>
@@ -16820,7 +16840,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>1594</v>
       </c>
@@ -16833,7 +16853,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>1588</v>
       </c>
@@ -16846,7 +16866,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1554</v>
       </c>
@@ -16859,7 +16879,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>1525</v>
       </c>
@@ -16872,7 +16892,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1614</v>
       </c>
@@ -16885,7 +16905,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1449</v>
       </c>
@@ -16900,7 +16920,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1477</v>
       </c>
@@ -16915,7 +16935,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1532</v>
       </c>
@@ -16928,7 +16948,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1471</v>
       </c>
@@ -16943,7 +16963,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1622</v>
       </c>
@@ -16958,7 +16978,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>1556</v>
       </c>
@@ -16971,7 +16991,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1610</v>
       </c>
@@ -16984,7 +17004,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1562</v>
       </c>
@@ -16997,7 +17017,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1467</v>
       </c>
@@ -17012,7 +17032,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1596</v>
       </c>
@@ -17025,7 +17045,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1463</v>
       </c>
@@ -17040,7 +17060,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>1517</v>
       </c>
@@ -17055,7 +17075,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1427</v>
       </c>
@@ -17070,7 +17090,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1487</v>
       </c>
@@ -17085,7 +17105,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>1598</v>
       </c>
@@ -17098,7 +17118,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1437</v>
       </c>
@@ -17113,7 +17133,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1491</v>
       </c>
@@ -17128,7 +17148,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1572</v>
       </c>
@@ -17141,7 +17161,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1465</v>
       </c>
@@ -17156,7 +17176,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>1459</v>
       </c>
@@ -17171,7 +17191,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>1566</v>
       </c>
@@ -17184,7 +17204,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>1493</v>
       </c>
@@ -17199,7 +17219,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>1499</v>
       </c>
@@ -17214,7 +17234,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>1453</v>
       </c>
@@ -17229,7 +17249,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1455</v>
       </c>
@@ -17244,7 +17264,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>1515</v>
       </c>
@@ -17259,7 +17279,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1469</v>
       </c>
@@ -17274,7 +17294,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1473</v>
       </c>
@@ -17289,7 +17309,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1509</v>
       </c>
@@ -17304,7 +17324,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>1457</v>
       </c>
@@ -17319,7 +17339,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>1443</v>
       </c>
@@ -17334,7 +17354,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1479</v>
       </c>
@@ -17349,7 +17369,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1475</v>
       </c>
@@ -17364,7 +17384,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1447</v>
       </c>
@@ -17379,7 +17399,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1429</v>
       </c>
@@ -17394,7 +17414,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1497</v>
       </c>
@@ -17409,7 +17429,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1608</v>
       </c>
@@ -17424,7 +17444,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1570</v>
       </c>
@@ -17437,7 +17457,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1582</v>
       </c>
@@ -17450,7 +17470,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1624</v>
       </c>
@@ -17465,7 +17485,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1606</v>
       </c>
@@ -17480,7 +17500,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1568</v>
       </c>
@@ -17493,7 +17513,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1564</v>
       </c>
@@ -17508,7 +17528,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1540</v>
       </c>
@@ -17521,7 +17541,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1435</v>
       </c>
@@ -17536,7 +17556,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1501</v>
       </c>
@@ -17551,7 +17571,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>1616</v>
       </c>
@@ -17564,7 +17584,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>1503</v>
       </c>
@@ -17579,7 +17599,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1439</v>
       </c>
@@ -17594,7 +17614,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>1481</v>
       </c>
@@ -17607,7 +17627,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>1546</v>
       </c>
@@ -17620,7 +17640,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="3">
@@ -17630,7 +17650,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="3">
@@ -17649,19 +17669,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DDE56C-B101-4A28-9053-AC08F0869FFF}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1425</v>
       </c>
@@ -17681,7 +17701,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1695</v>
       </c>
@@ -17697,7 +17717,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1782</v>
       </c>
@@ -17713,7 +17733,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1723</v>
       </c>
@@ -17729,7 +17749,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1775</v>
       </c>
@@ -17745,7 +17765,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1665</v>
       </c>
@@ -17761,7 +17781,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1725</v>
       </c>
@@ -17777,7 +17797,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1793</v>
       </c>
@@ -17793,7 +17813,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1788</v>
       </c>
@@ -17809,7 +17829,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1669</v>
       </c>
@@ -17825,7 +17845,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1667</v>
       </c>
@@ -17841,7 +17861,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1728</v>
       </c>
@@ -17857,7 +17877,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1747</v>
       </c>
@@ -17873,7 +17893,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1654</v>
       </c>
@@ -17889,7 +17909,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1630</v>
       </c>
@@ -17905,7 +17925,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1707</v>
       </c>
@@ -17921,7 +17941,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1781</v>
       </c>
@@ -17937,7 +17957,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1789</v>
       </c>
@@ -17953,7 +17973,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1649</v>
       </c>
@@ -17969,7 +17989,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1628</v>
       </c>
@@ -17985,7 +18005,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1645</v>
       </c>
@@ -18001,7 +18021,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>1663</v>
       </c>
@@ -18019,7 +18039,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1706</v>
       </c>
@@ -18035,7 +18055,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1766</v>
       </c>
@@ -18051,7 +18071,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1688</v>
       </c>
@@ -18067,7 +18087,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>1712</v>
       </c>
@@ -18083,7 +18103,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1785</v>
       </c>
@@ -18099,7 +18119,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>1754</v>
       </c>
@@ -18115,7 +18135,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>1763</v>
       </c>
@@ -18131,7 +18151,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1681</v>
       </c>
@@ -18147,7 +18167,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>1792</v>
       </c>
@@ -18163,7 +18183,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>1735</v>
       </c>
@@ -18179,7 +18199,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>1646</v>
       </c>
@@ -18195,7 +18215,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>1668</v>
       </c>
@@ -18211,7 +18231,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>1659</v>
       </c>
@@ -18227,7 +18247,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>1710</v>
       </c>
@@ -18243,7 +18263,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>1773</v>
       </c>
@@ -18259,7 +18279,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>1635</v>
       </c>
@@ -18277,7 +18297,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>1759</v>
       </c>
@@ -18295,7 +18315,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1750</v>
       </c>
@@ -18313,7 +18333,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1786</v>
       </c>
@@ -18329,7 +18349,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>1678</v>
       </c>
@@ -18347,7 +18367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>1641</v>
       </c>
@@ -18365,7 +18385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>1650</v>
       </c>
@@ -18381,7 +18401,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>1713</v>
       </c>
@@ -18399,7 +18419,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>1733</v>
       </c>
@@ -18417,7 +18437,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>1769</v>
       </c>
@@ -18435,7 +18455,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>1717</v>
       </c>
@@ -18453,7 +18473,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>1757</v>
       </c>
@@ -18471,7 +18491,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>1699</v>
       </c>
@@ -18489,7 +18509,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1740</v>
       </c>
@@ -18507,7 +18527,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>1742</v>
       </c>
@@ -18523,7 +18543,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>1637</v>
       </c>
@@ -18539,7 +18559,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>1661</v>
       </c>
@@ -18557,7 +18577,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1684</v>
       </c>
@@ -18575,7 +18595,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>1748</v>
       </c>
@@ -18591,7 +18611,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>1752</v>
       </c>
@@ -18609,7 +18629,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>1731</v>
       </c>
@@ -18627,7 +18647,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>1633</v>
       </c>
@@ -18645,7 +18665,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>1721</v>
       </c>
@@ -18663,7 +18683,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>1686</v>
       </c>
@@ -18681,7 +18701,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>1657</v>
       </c>
@@ -18699,7 +18719,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>1708</v>
       </c>
@@ -18715,7 +18735,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>1674</v>
       </c>
@@ -18733,7 +18753,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1726</v>
       </c>
@@ -18751,7 +18771,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>1697</v>
       </c>
@@ -18769,7 +18789,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>1703</v>
       </c>
@@ -18787,7 +18807,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>1715</v>
       </c>
@@ -18805,7 +18825,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>1679</v>
       </c>
@@ -18823,7 +18843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>1682</v>
       </c>
@@ -18841,7 +18861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>1719</v>
       </c>
@@ -18859,7 +18879,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>1771</v>
       </c>
@@ -18877,7 +18897,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>1736</v>
       </c>
@@ -18895,7 +18915,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>1729</v>
       </c>
@@ -18913,7 +18933,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>1672</v>
       </c>
@@ -18931,7 +18951,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>1676</v>
       </c>
@@ -18949,7 +18969,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>1790</v>
       </c>
@@ -18965,7 +18985,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>1631</v>
       </c>
@@ -18983,7 +19003,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>1764</v>
       </c>
@@ -19001,7 +19021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>1689</v>
       </c>
@@ -19019,7 +19039,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>1795</v>
       </c>
@@ -19035,7 +19055,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>1761</v>
       </c>
@@ -19053,7 +19073,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>1777</v>
       </c>
@@ -19069,7 +19089,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>1647</v>
       </c>
@@ -19087,7 +19107,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>1743</v>
       </c>
@@ -19105,7 +19125,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1755</v>
       </c>
@@ -19121,7 +19141,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>1783</v>
       </c>
@@ -19139,7 +19159,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>1701</v>
       </c>
@@ -19155,7 +19175,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>1643</v>
       </c>
@@ -19173,7 +19193,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>1745</v>
       </c>
@@ -19191,7 +19211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>1691</v>
       </c>
@@ -19209,7 +19229,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>1738</v>
       </c>
@@ -19227,7 +19247,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>1693</v>
       </c>
@@ -19245,7 +19265,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>1693</v>
       </c>
@@ -19263,7 +19283,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>1652</v>
       </c>
@@ -19281,7 +19301,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>1639</v>
       </c>
@@ -19299,7 +19319,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>1779</v>
       </c>
@@ -19315,7 +19335,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>1797</v>
       </c>
@@ -19333,7 +19353,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>1767</v>
       </c>
@@ -19351,7 +19371,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>1670</v>
       </c>
@@ -19369,7 +19389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>1655</v>
       </c>
@@ -19385,7 +19405,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -19399,7 +19419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -19425,16 +19445,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FE59B5-DEB9-436A-AF29-A8450CE420EA}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A106" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="1" max="1" width="53.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1425</v>
       </c>
@@ -19451,7 +19471,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1863</v>
       </c>
@@ -19466,7 +19486,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1901</v>
       </c>
@@ -19481,7 +19501,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1934</v>
       </c>
@@ -19496,7 +19516,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1891</v>
       </c>
@@ -19511,7 +19531,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1865</v>
       </c>
@@ -19526,7 +19546,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1867</v>
       </c>
@@ -19541,7 +19561,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1970</v>
       </c>
@@ -19556,7 +19576,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1868</v>
       </c>
@@ -19571,7 +19591,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1902</v>
       </c>
@@ -19586,7 +19606,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1972</v>
       </c>
@@ -19601,7 +19621,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1949</v>
       </c>
@@ -19616,7 +19636,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1903</v>
       </c>
@@ -19631,7 +19651,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1938</v>
       </c>
@@ -19646,7 +19666,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1904</v>
       </c>
@@ -19661,7 +19681,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1905</v>
       </c>
@@ -19676,7 +19696,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1857</v>
       </c>
@@ -19691,7 +19711,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1951</v>
       </c>
@@ -19706,7 +19726,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1845</v>
       </c>
@@ -19721,7 +19741,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1906</v>
       </c>
@@ -19736,7 +19756,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1847</v>
       </c>
@@ -19751,7 +19771,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1870</v>
       </c>
@@ -19766,7 +19786,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1953</v>
       </c>
@@ -19781,7 +19801,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>1872</v>
       </c>
@@ -19796,7 +19816,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1874</v>
       </c>
@@ -19811,7 +19831,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1875</v>
       </c>
@@ -19826,7 +19846,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1876</v>
       </c>
@@ -19841,7 +19861,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1877</v>
       </c>
@@ -19856,7 +19876,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>1861</v>
       </c>
@@ -19871,7 +19891,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1895</v>
       </c>
@@ -19886,7 +19906,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1893</v>
       </c>
@@ -19901,7 +19921,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1908</v>
       </c>
@@ -19916,7 +19936,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>1897</v>
       </c>
@@ -19929,7 +19949,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>1909</v>
       </c>
@@ -19944,7 +19964,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1911</v>
       </c>
@@ -19959,7 +19979,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>1913</v>
       </c>
@@ -19974,7 +19994,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>1915</v>
       </c>
@@ -19989,7 +20009,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>1916</v>
       </c>
@@ -20004,7 +20024,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1955</v>
       </c>
@@ -20019,7 +20039,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>1974</v>
       </c>
@@ -20034,7 +20054,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>1849</v>
       </c>
@@ -20049,7 +20069,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>1851</v>
       </c>
@@ -20064,7 +20084,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1853</v>
       </c>
@@ -20079,7 +20099,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1878</v>
       </c>
@@ -20094,7 +20114,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>1880</v>
       </c>
@@ -20109,7 +20129,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>1881</v>
       </c>
@@ -20124,7 +20144,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>1885</v>
       </c>
@@ -20139,7 +20159,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1882</v>
       </c>
@@ -20154,7 +20174,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>1859</v>
       </c>
@@ -20169,7 +20189,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1957</v>
       </c>
@@ -20184,7 +20204,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1959</v>
       </c>
@@ -20199,7 +20219,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1855</v>
       </c>
@@ -20214,7 +20234,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1940</v>
       </c>
@@ -20229,7 +20249,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1936</v>
       </c>
@@ -20244,7 +20264,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1917</v>
       </c>
@@ -20259,7 +20279,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>1918</v>
       </c>
@@ -20274,7 +20294,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1919</v>
       </c>
@@ -20289,7 +20309,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1961</v>
       </c>
@@ -20304,7 +20324,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1942</v>
       </c>
@@ -20319,7 +20339,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1889</v>
       </c>
@@ -20334,7 +20354,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1963</v>
       </c>
@@ -20349,7 +20369,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>1965</v>
       </c>
@@ -20364,7 +20384,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1921</v>
       </c>
@@ -20379,7 +20399,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1922</v>
       </c>
@@ -20394,7 +20414,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>1923</v>
       </c>
@@ -20409,7 +20429,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1924</v>
       </c>
@@ -20424,7 +20444,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1975</v>
       </c>
@@ -20439,7 +20459,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1964</v>
       </c>
@@ -20452,7 +20472,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1976</v>
       </c>
@@ -20467,7 +20487,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>1977</v>
       </c>
@@ -20482,7 +20502,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>1978</v>
       </c>
@@ -20497,7 +20517,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>1967</v>
       </c>
@@ -20512,7 +20532,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>1979</v>
       </c>
@@ -20527,7 +20547,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>1980</v>
       </c>
@@ -20542,7 +20562,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1925</v>
       </c>
@@ -20557,7 +20577,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>1926</v>
       </c>
@@ -20572,7 +20592,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1899</v>
       </c>
@@ -20587,7 +20607,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1981</v>
       </c>
@@ -20602,7 +20622,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1982</v>
       </c>
@@ -20617,7 +20637,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>1931</v>
       </c>
@@ -20632,7 +20652,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>1983</v>
       </c>
@@ -20647,7 +20667,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1984</v>
       </c>
@@ -20662,7 +20682,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1985</v>
       </c>
@@ -20677,7 +20697,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1927</v>
       </c>
@@ -20692,7 +20712,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1986</v>
       </c>
@@ -20707,7 +20727,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1928</v>
       </c>
@@ -20722,7 +20742,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1944</v>
       </c>
@@ -20737,7 +20757,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1945</v>
       </c>
@@ -20752,7 +20772,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1987</v>
       </c>
@@ -20767,7 +20787,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1989</v>
       </c>
@@ -20782,7 +20802,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1946</v>
       </c>
@@ -20797,7 +20817,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1948</v>
       </c>
@@ -20812,7 +20832,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1990</v>
       </c>
@@ -20827,7 +20847,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1991</v>
       </c>
@@ -20842,7 +20862,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1969</v>
       </c>
@@ -20857,7 +20877,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1929</v>
       </c>
@@ -20872,7 +20892,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>1930</v>
       </c>
@@ -20887,7 +20907,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>1887</v>
       </c>
@@ -20902,7 +20922,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1933</v>
       </c>
@@ -20917,7 +20937,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>1973</v>
       </c>
@@ -20932,7 +20952,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>1884</v>
       </c>
@@ -20947,7 +20967,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3">
@@ -20972,18 +20992,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B2755-0FAD-4C8A-87EF-D2D77697CD58}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1425</v>
       </c>
@@ -21000,7 +21020,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2099</v>
       </c>
@@ -21015,7 +21035,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2057</v>
       </c>
@@ -21032,7 +21052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2096</v>
       </c>
@@ -21047,7 +21067,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2085</v>
       </c>
@@ -21062,7 +21082,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2074</v>
       </c>
@@ -21077,7 +21097,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2068</v>
       </c>
@@ -21092,7 +21112,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2030</v>
       </c>
@@ -21107,7 +21127,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2032</v>
       </c>
@@ -21122,7 +21142,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2007</v>
       </c>
@@ -21137,7 +21157,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>2075</v>
       </c>
@@ -21154,7 +21174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2072</v>
       </c>
@@ -21169,7 +21189,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>2114</v>
       </c>
@@ -21184,7 +21204,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2089</v>
       </c>
@@ -21199,7 +21219,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>2104</v>
       </c>
@@ -21214,7 +21234,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2042</v>
       </c>
@@ -21229,7 +21249,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>2067</v>
       </c>
@@ -21244,7 +21264,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>2026</v>
       </c>
@@ -21261,7 +21281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>2059</v>
       </c>
@@ -21276,7 +21296,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>2001</v>
       </c>
@@ -21291,7 +21311,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>2055</v>
       </c>
@@ -21306,7 +21326,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2115</v>
       </c>
@@ -21321,7 +21341,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>2126</v>
       </c>
@@ -21336,7 +21356,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>2011</v>
       </c>
@@ -21351,7 +21371,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2011</v>
       </c>
@@ -21366,7 +21386,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>2015</v>
       </c>
@@ -21381,7 +21401,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>2008</v>
       </c>
@@ -21396,7 +21416,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>2043</v>
       </c>
@@ -21411,7 +21431,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>2125</v>
       </c>
@@ -21426,7 +21446,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>2016</v>
       </c>
@@ -21443,7 +21463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>2000</v>
       </c>
@@ -21458,7 +21478,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>2069</v>
       </c>
@@ -21473,7 +21493,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>2073</v>
       </c>
@@ -21488,7 +21508,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>1994</v>
       </c>
@@ -21503,7 +21523,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>2065</v>
       </c>
@@ -21518,7 +21538,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>2102</v>
       </c>
@@ -21533,7 +21553,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>2110</v>
       </c>
@@ -21548,7 +21568,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>2025</v>
       </c>
@@ -21563,7 +21583,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>2083</v>
       </c>
@@ -21578,7 +21598,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>2023</v>
       </c>
@@ -21595,7 +21615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>2087</v>
       </c>
@@ -21612,7 +21632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>2094</v>
       </c>
@@ -21627,7 +21647,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>2009</v>
       </c>
@@ -21642,7 +21662,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>2103</v>
       </c>
@@ -21657,7 +21677,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>2040</v>
       </c>
@@ -21672,7 +21692,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>2084</v>
       </c>
@@ -21687,7 +21707,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>2127</v>
       </c>
@@ -21702,7 +21722,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>2108</v>
       </c>
@@ -21717,7 +21737,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>2039</v>
       </c>
@@ -21734,7 +21754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>2105</v>
       </c>
@@ -21749,7 +21769,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>2028</v>
       </c>
@@ -21764,7 +21784,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>2056</v>
       </c>
@@ -21779,7 +21799,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>2046</v>
       </c>
@@ -21794,7 +21814,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>2053</v>
       </c>
@@ -21809,7 +21829,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>2071</v>
       </c>
@@ -21824,7 +21844,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>2106</v>
       </c>
@@ -21841,7 +21861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>2093</v>
       </c>
@@ -21856,7 +21876,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>2037</v>
       </c>
@@ -21873,7 +21893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>2051</v>
       </c>
@@ -21888,7 +21908,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>1998</v>
       </c>
@@ -21903,7 +21923,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>2047</v>
       </c>
@@ -21918,7 +21938,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>2095</v>
       </c>
@@ -21933,7 +21953,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>2113</v>
       </c>
@@ -21948,7 +21968,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>2012</v>
       </c>
@@ -21963,7 +21983,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>2091</v>
       </c>
@@ -21978,7 +21998,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>2049</v>
       </c>
@@ -21993,7 +22013,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>2111</v>
       </c>
@@ -22008,7 +22028,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>2054</v>
       </c>
@@ -22023,7 +22043,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>2119</v>
       </c>
@@ -22040,7 +22060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>2003</v>
       </c>
@@ -22055,7 +22075,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>2058</v>
       </c>
@@ -22070,7 +22090,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>2018</v>
       </c>
@@ -22085,7 +22105,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>2118</v>
       </c>
@@ -22100,7 +22120,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>2116</v>
       </c>
@@ -22115,7 +22135,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>2077</v>
       </c>
@@ -22130,7 +22150,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>2101</v>
       </c>
@@ -22145,7 +22165,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>2061</v>
       </c>
@@ -22160,7 +22180,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>2080</v>
       </c>
@@ -22177,7 +22197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>2005</v>
       </c>
@@ -22192,7 +22212,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>2044</v>
       </c>
@@ -22207,7 +22227,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>2097</v>
       </c>
@@ -22222,7 +22242,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>2120</v>
       </c>
@@ -22237,7 +22257,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>2063</v>
       </c>
@@ -22254,7 +22274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>2035</v>
       </c>
@@ -22269,7 +22289,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>2048</v>
       </c>
@@ -22284,7 +22304,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1996</v>
       </c>
@@ -22299,7 +22319,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>2081</v>
       </c>
@@ -22316,7 +22336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>2124</v>
       </c>
@@ -22333,7 +22353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>2076</v>
       </c>
@@ -22348,7 +22368,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>2066</v>
       </c>
@@ -22363,7 +22383,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>2013</v>
       </c>
@@ -22378,7 +22398,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>2050</v>
       </c>
@@ -22393,7 +22413,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>2031</v>
       </c>
@@ -22408,7 +22428,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>2121</v>
       </c>
@@ -22423,7 +22443,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>2123</v>
       </c>
@@ -22438,7 +22458,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>2033</v>
       </c>
@@ -22453,7 +22473,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>2052</v>
       </c>
@@ -22468,7 +22488,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>2070</v>
       </c>
@@ -22483,7 +22503,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>2020</v>
       </c>
@@ -22498,7 +22518,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>2014</v>
       </c>
@@ -22513,7 +22533,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>2078</v>
       </c>
@@ -22528,7 +22548,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
